--- a/cifras.xlsx
+++ b/cifras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24802449\Documents\GitHub\Projeto-Sustentabilidade-Individual-Classificatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{BBCA6315-9090-4156-B541-E385DEC337A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EEDA12-FAE5-40AE-B00B-5B3DAE9FBCF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C2F6A87B-7FA6-4660-93C1-123B9AE4EE85}"/>
   </bookViews>
@@ -27,778 +27,778 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
-    <t>| Índice | Caractere | Código ASCII |</t>
-  </si>
-  <si>
-    <t>|--------|-----------|--------------|</t>
-  </si>
-  <si>
-    <t>| 0   | NUL        | 0   |</t>
-  </si>
-  <si>
-    <t>| 1   | SOH        | 1   |</t>
-  </si>
-  <si>
-    <t>| 2   | STX        | 2   |</t>
-  </si>
-  <si>
-    <t>| 3   | ETX        | 3   |</t>
-  </si>
-  <si>
-    <t>| 4   | EOT        | 4   |</t>
-  </si>
-  <si>
-    <t>| 5   | ENQ        | 5   |</t>
-  </si>
-  <si>
-    <t>| 6   | ACK        | 6   |</t>
-  </si>
-  <si>
-    <t>| 7   | BEL        | 7   |</t>
-  </si>
-  <si>
-    <t>| 8   | BS         | 8   |</t>
-  </si>
-  <si>
-    <t>| 9   | TAB        | 9   |</t>
-  </si>
-  <si>
-    <t>| 10  | LF         | 10  |</t>
-  </si>
-  <si>
-    <t>| 11  | VT         | 11  |</t>
-  </si>
-  <si>
-    <t>| 12  | FF         | 12  |</t>
-  </si>
-  <si>
-    <t>| 13  | CR         | 13  |</t>
-  </si>
-  <si>
-    <t>| 14  | SO         | 14  |</t>
-  </si>
-  <si>
-    <t>| 15  | SI         | 15  |</t>
-  </si>
-  <si>
-    <t>| 16  | DLE        | 16  |</t>
-  </si>
-  <si>
-    <t>| 17  | DC1        | 17  |</t>
-  </si>
-  <si>
-    <t>| 18  | DC2        | 18  |</t>
-  </si>
-  <si>
-    <t>| 19  | DC3        | 19  |</t>
-  </si>
-  <si>
-    <t>| 20  | DC4        | 20  |</t>
-  </si>
-  <si>
-    <t>| 21  | NAK        | 21  |</t>
-  </si>
-  <si>
-    <t>| 22  | SYN        | 22  |</t>
-  </si>
-  <si>
-    <t>| 23  | ETB        | 23  |</t>
-  </si>
-  <si>
-    <t>| 24  | CAN        | 24  |</t>
-  </si>
-  <si>
-    <t>| 25  | EM         | 25  |</t>
-  </si>
-  <si>
-    <t>| 26  | SUB        | 26  |</t>
-  </si>
-  <si>
-    <t>| 27  | ESC        | 27  |</t>
-  </si>
-  <si>
-    <t>| 28  | FS         | 28  |</t>
-  </si>
-  <si>
-    <t>| 29  | GS         | 29  |</t>
-  </si>
-  <si>
-    <t>| 30  | RS         | 30  |</t>
-  </si>
-  <si>
-    <t>| 31  | US         | 31  |</t>
-  </si>
-  <si>
-    <t>| 32  | Space      | 32  |</t>
-  </si>
-  <si>
-    <t>| 33  | !          | 33  |</t>
-  </si>
-  <si>
-    <t>| 34  | "          | 34  |</t>
-  </si>
-  <si>
-    <t>| 35  | #          | 35  |</t>
-  </si>
-  <si>
-    <t>| 36  | $          | 36  |</t>
-  </si>
-  <si>
-    <t>| 37  | %          | 37  |</t>
-  </si>
-  <si>
-    <t>| 38  | &amp;          | 38  |</t>
-  </si>
-  <si>
-    <t>| 39  | '          | 39  |</t>
-  </si>
-  <si>
-    <t>| 40  | (          | 40  |</t>
-  </si>
-  <si>
-    <t>| 41  | )          | 41  |</t>
-  </si>
-  <si>
-    <t>| 42  | *          | 42  |</t>
-  </si>
-  <si>
-    <t>| 43  | +          | 43  |</t>
-  </si>
-  <si>
-    <t>| 44  | ,          | 44  |</t>
-  </si>
-  <si>
-    <t>| 45  | -          | 45  |</t>
-  </si>
-  <si>
-    <t>| 46  | .          | 46  |</t>
-  </si>
-  <si>
-    <t>| 47  | /          | 47  |</t>
-  </si>
-  <si>
-    <t>| 48  | 0          | 48  |</t>
-  </si>
-  <si>
-    <t>| 49  | 1          | 49  |</t>
-  </si>
-  <si>
-    <t>| 50  | 2          | 50  |</t>
-  </si>
-  <si>
-    <t>| 51  | 3          | 51  |</t>
-  </si>
-  <si>
-    <t>| 52  | 4          | 52  |</t>
-  </si>
-  <si>
-    <t>| 53  | 5          | 53  |</t>
-  </si>
-  <si>
-    <t>| 54  | 6          | 54  |</t>
-  </si>
-  <si>
-    <t>| 55  | 7          | 55  |</t>
-  </si>
-  <si>
-    <t>| 56  | 8          | 56  |</t>
-  </si>
-  <si>
-    <t>| 57  | 9          | 57  |</t>
-  </si>
-  <si>
-    <t>| 58  | :          | 58  |</t>
-  </si>
-  <si>
-    <t>| 59  | ;          | 59  |</t>
-  </si>
-  <si>
-    <t>| 60  | &lt;          | 60  |</t>
-  </si>
-  <si>
-    <t>| 61  | =          | 61  |</t>
-  </si>
-  <si>
-    <t>| 62  | &gt;          | 62  |</t>
-  </si>
-  <si>
-    <t>| 63  | ?          | 63  |</t>
-  </si>
-  <si>
-    <t>| 64  | @          | 64  |</t>
-  </si>
-  <si>
-    <t>| 65  | A          | 65  |</t>
-  </si>
-  <si>
-    <t>| 66  | B          | 66  |</t>
-  </si>
-  <si>
-    <t>| 67  | C          | 67  |</t>
-  </si>
-  <si>
-    <t>| 68  | D          | 68  |</t>
-  </si>
-  <si>
-    <t>| 69  | E          | 69  |</t>
-  </si>
-  <si>
-    <t>| 70  | F          | 70  |</t>
-  </si>
-  <si>
-    <t>| 71  | G          | 71  |</t>
-  </si>
-  <si>
-    <t>| 72  | H          | 72  |</t>
-  </si>
-  <si>
-    <t>| 73  | I          | 73  |</t>
-  </si>
-  <si>
-    <t>| 74  | J          | 74  |</t>
-  </si>
-  <si>
-    <t>| 75  | K          | 75  |</t>
-  </si>
-  <si>
-    <t>| 76  | L          | 76  |</t>
-  </si>
-  <si>
-    <t>| 77  | M          | 77  |</t>
-  </si>
-  <si>
-    <t>| 78  | N          | 78  |</t>
-  </si>
-  <si>
-    <t>| 79  | O          | 79  |</t>
-  </si>
-  <si>
-    <t>| 80  | P          | 80  |</t>
-  </si>
-  <si>
-    <t>| 81  | Q          | 81  |</t>
-  </si>
-  <si>
-    <t>| 82  | R          | 82  |</t>
-  </si>
-  <si>
-    <t>| 83  | S          | 83  |</t>
-  </si>
-  <si>
-    <t>| 84  | T          | 84  |</t>
-  </si>
-  <si>
-    <t>| 85  | U          | 85  |</t>
-  </si>
-  <si>
-    <t>| 86  | V          | 86  |</t>
-  </si>
-  <si>
-    <t>| 87  | W          | 87  |</t>
-  </si>
-  <si>
-    <t>| 88  | X          | 88  |</t>
-  </si>
-  <si>
-    <t>| 89  | Y          | 89  |</t>
-  </si>
-  <si>
-    <t>| 90  | Z          | 90  |</t>
-  </si>
-  <si>
-    <t>| 91  | [          | 91  |</t>
-  </si>
-  <si>
-    <t>| 92  | `\`        | 92  |</t>
-  </si>
-  <si>
-    <t>| 93  | ]          | 93  |</t>
-  </si>
-  <si>
-    <t>| 94  | ^          | 94  |</t>
-  </si>
-  <si>
-    <t>| 95  | _          | 95  |</t>
-  </si>
-  <si>
-    <t>| 96  | `          | 96  |</t>
-  </si>
-  <si>
-    <t>| 97  | a          | 97  |</t>
-  </si>
-  <si>
-    <t>| 98  | b          | 98  |</t>
-  </si>
-  <si>
-    <t>| 99  | c          | 99  |</t>
-  </si>
-  <si>
-    <t>| 100 | d          | 100 |</t>
-  </si>
-  <si>
-    <t>| 101 | e          | 101 |</t>
-  </si>
-  <si>
-    <t>| 102 | f          | 102 |</t>
-  </si>
-  <si>
-    <t>| 103 | g          | 103 |</t>
-  </si>
-  <si>
-    <t>| 104 | h          | 104 |</t>
-  </si>
-  <si>
-    <t>| 105 | i          | 105 |</t>
-  </si>
-  <si>
-    <t>| 106 | j          | 106 |</t>
-  </si>
-  <si>
-    <t>| 107 | k          | 107 |</t>
-  </si>
-  <si>
-    <t>| 108 | l          | 108 |</t>
-  </si>
-  <si>
-    <t>| 109 | m          | 109 |</t>
-  </si>
-  <si>
-    <t>| 110 | n          | 110 |</t>
-  </si>
-  <si>
-    <t>| 111 | o          | 111 |</t>
-  </si>
-  <si>
-    <t>| 112 | p          | 112 |</t>
-  </si>
-  <si>
-    <t>| 113 | q          | 113 |</t>
-  </si>
-  <si>
-    <t>| 114 | r          | 114 |</t>
-  </si>
-  <si>
-    <t>| 115 | s          | 115 |</t>
-  </si>
-  <si>
-    <t>| 116 | t          | 116 |</t>
-  </si>
-  <si>
-    <t>| 117 | u          | 117 |</t>
-  </si>
-  <si>
-    <t>| 118 | v          | 118 |</t>
-  </si>
-  <si>
-    <t>| 119 | w          | 119 |</t>
-  </si>
-  <si>
-    <t>| 120 | x          | 120 |</t>
-  </si>
-  <si>
-    <t>| 121 | y          | 121 |</t>
-  </si>
-  <si>
-    <t>| 122 | z          | 122 |</t>
-  </si>
-  <si>
-    <t>| 123 | {          | 123 |</t>
-  </si>
-  <si>
-    <t>| 124 | \|         | 124 |</t>
-  </si>
-  <si>
-    <t>| 125 | }          | 125 |</t>
-  </si>
-  <si>
-    <t>| 126 | ~          | 126 |</t>
-  </si>
-  <si>
-    <t>| 127 | DEL        | 127 |</t>
-  </si>
-  <si>
-    <t>| 128 | €          | 128 |</t>
-  </si>
-  <si>
-    <t>| 129 | undef      | 129 |</t>
-  </si>
-  <si>
-    <t>| 130 | ‚          | 130 |</t>
-  </si>
-  <si>
-    <t>| 131 | ƒ          | 131 |</t>
-  </si>
-  <si>
-    <t>| 132 | „          | 132 |</t>
-  </si>
-  <si>
-    <t>| 133 | …          | 133 |</t>
-  </si>
-  <si>
-    <t>| 134 | †          | 134 |</t>
-  </si>
-  <si>
-    <t>| 135 | ‡          | 135 |</t>
-  </si>
-  <si>
-    <t>| 136 | ˆ          | 136 |</t>
-  </si>
-  <si>
-    <t>| 137 | ‰          | 137 |</t>
-  </si>
-  <si>
-    <t>| 138 | Š          | 138 |</t>
-  </si>
-  <si>
-    <t>| 139 | ‹          | 139 |</t>
-  </si>
-  <si>
-    <t>| 140 | Œ          | 140 |</t>
-  </si>
-  <si>
-    <t>| 141 | undef      | 141 |</t>
-  </si>
-  <si>
-    <t>| 142 | Ž          | 142 |</t>
-  </si>
-  <si>
-    <t>| 143 | undef      | 143 |</t>
-  </si>
-  <si>
-    <t>| 144 | undef      | 144 |</t>
-  </si>
-  <si>
-    <t>| 145 | ‘          | 145 |</t>
-  </si>
-  <si>
-    <t>| 146 | ’          | 146 |</t>
-  </si>
-  <si>
-    <t>| 147 | “          | 147 |</t>
-  </si>
-  <si>
-    <t>| 148 | ”          | 148 |</t>
-  </si>
-  <si>
-    <t>| 149 | •          | 149 |</t>
-  </si>
-  <si>
-    <t>| 150 | –          | 150 |</t>
-  </si>
-  <si>
-    <t>| 151 | —          | 151 |</t>
-  </si>
-  <si>
-    <t>| 152 | ˜          | 152 |</t>
-  </si>
-  <si>
-    <t>| 153 | ™          | 153 |</t>
-  </si>
-  <si>
-    <t>| 154 | š          | 154 |</t>
-  </si>
-  <si>
-    <t>| 155 | ›          | 155 |</t>
-  </si>
-  <si>
-    <t>| 156 | œ          | 156 |</t>
-  </si>
-  <si>
-    <t>| 157 | undef      | 157 |</t>
-  </si>
-  <si>
-    <t>| 158 | ž          | 158 |</t>
-  </si>
-  <si>
-    <t>| 159 | Ÿ          | 159 |</t>
-  </si>
-  <si>
-    <t>| 160 | NBSP       | 160 |</t>
-  </si>
-  <si>
-    <t>| 161 | ¡          | 161 |</t>
-  </si>
-  <si>
-    <t>| 162 | ¢          | 162 |</t>
-  </si>
-  <si>
-    <t>| 163 | £          | 163 |</t>
-  </si>
-  <si>
-    <t>| 164 | ¤          | 164 |</t>
-  </si>
-  <si>
-    <t>| 165 | ¥          | 165 |</t>
-  </si>
-  <si>
-    <t>| 166 | ¦          | 166 |</t>
-  </si>
-  <si>
-    <t>| 167 | §          | 167 |</t>
-  </si>
-  <si>
-    <t>| 168 | ¨          | 168 |</t>
-  </si>
-  <si>
-    <t>| 169 | ©          | 169 |</t>
-  </si>
-  <si>
-    <t>| 170 | ª          | 170 |</t>
-  </si>
-  <si>
-    <t>| 171 | «          | 171 |</t>
-  </si>
-  <si>
-    <t>| 172 | ¬          | 172 |</t>
-  </si>
-  <si>
-    <t>| 173 | SHY        | 173 |</t>
-  </si>
-  <si>
-    <t>| 174 | ®          | 174 |</t>
-  </si>
-  <si>
-    <t>| 175 | ¯          | 175 |</t>
-  </si>
-  <si>
-    <t>| 176 | °          | 176 |</t>
-  </si>
-  <si>
-    <t>| 177 | ±          | 177 |</t>
-  </si>
-  <si>
-    <t>| 178 | ²          | 178 |</t>
-  </si>
-  <si>
-    <t>| 179 | ³          | 179 |</t>
-  </si>
-  <si>
-    <t>| 180 | ´          | 180 |</t>
-  </si>
-  <si>
-    <t>| 181 | µ          | 181 |</t>
-  </si>
-  <si>
-    <t>| 182 | ¶          | 182 |</t>
-  </si>
-  <si>
-    <t>| 183 | ·          | 183 |</t>
-  </si>
-  <si>
-    <t>| 184 | ¸          | 184 |</t>
-  </si>
-  <si>
-    <t>| 185 | ¹          | 185 |</t>
-  </si>
-  <si>
-    <t>| 186 | º          | 186 |</t>
-  </si>
-  <si>
-    <t>| 187 | »          | 187 |</t>
-  </si>
-  <si>
-    <t>| 188 | ¼          | 188 |</t>
-  </si>
-  <si>
-    <t>| 189 | ½          | 189 |</t>
-  </si>
-  <si>
-    <t>| 190 | ¾          | 190 |</t>
-  </si>
-  <si>
-    <t>| 191 | ¿          | 191 |</t>
-  </si>
-  <si>
-    <t>| 192 | À          | 192 |</t>
-  </si>
-  <si>
-    <t>| 193 | Á          | 193 |</t>
-  </si>
-  <si>
-    <t>| 194 | Â          | 194 |</t>
-  </si>
-  <si>
-    <t>| 195 | Ã          | 195 |</t>
-  </si>
-  <si>
-    <t>| 196 | Ä          | 196 |</t>
-  </si>
-  <si>
-    <t>| 197 | Å          | 197 |</t>
-  </si>
-  <si>
-    <t>| 198 | Æ          | 198 |</t>
-  </si>
-  <si>
-    <t>| 199 | Ç          | 199 |</t>
-  </si>
-  <si>
-    <t>| 200 | È          | 200 |</t>
-  </si>
-  <si>
-    <t>| 201 | É          | 201 |</t>
-  </si>
-  <si>
-    <t>| 202 | Ê          | 202 |</t>
-  </si>
-  <si>
-    <t>| 203 | Ë          | 203 |</t>
-  </si>
-  <si>
-    <t>| 204 | Ì          | 204 |</t>
-  </si>
-  <si>
-    <t>| 205 | Í          | 205 |</t>
-  </si>
-  <si>
-    <t>| 206 | Î          | 206 |</t>
-  </si>
-  <si>
-    <t>| 207 | Ï          | 207 |</t>
-  </si>
-  <si>
-    <t>| 208 | Ð          | 208 |</t>
-  </si>
-  <si>
-    <t>| 209 | Ñ          | 209 |</t>
-  </si>
-  <si>
-    <t>| 210 | Ò          | 210 |</t>
-  </si>
-  <si>
-    <t>| 211 | Ó          | 211 |</t>
-  </si>
-  <si>
-    <t>| 212 | Ô          | 212 |</t>
-  </si>
-  <si>
-    <t>| 213 | Õ          | 213 |</t>
-  </si>
-  <si>
-    <t>| 214 | Ö          | 214 |</t>
-  </si>
-  <si>
-    <t>| 215 | ×          | 215 |</t>
-  </si>
-  <si>
-    <t>| 216 | Ø          | 216 |</t>
-  </si>
-  <si>
-    <t>| 217 | Ù          | 217 |</t>
-  </si>
-  <si>
-    <t>| 218 | Ú          | 218 |</t>
-  </si>
-  <si>
-    <t>| 219 | Û          | 219 |</t>
-  </si>
-  <si>
-    <t>| 220 | Ü          | 220 |</t>
-  </si>
-  <si>
-    <t>| 221 | Ý          | 221 |</t>
-  </si>
-  <si>
-    <t>| 222 | Þ          | 222 |</t>
-  </si>
-  <si>
-    <t>| 223 | ß          | 223 |</t>
-  </si>
-  <si>
-    <t>| 224 | à          | 224 |</t>
-  </si>
-  <si>
-    <t>| 225 | á          | 225 |</t>
-  </si>
-  <si>
-    <t>| 226 | â          | 226 |</t>
-  </si>
-  <si>
-    <t>| 227 | ã          | 227 |</t>
-  </si>
-  <si>
-    <t>| 228 | ä          | 228 |</t>
-  </si>
-  <si>
-    <t>| 229 | å          | 229 |</t>
-  </si>
-  <si>
-    <t>| 230 | æ          | 230 |</t>
-  </si>
-  <si>
-    <t>| 231 | ç          | 231 |</t>
-  </si>
-  <si>
-    <t>| 232 | è          | 232 |</t>
-  </si>
-  <si>
-    <t>| 233 | é          | 233 |</t>
-  </si>
-  <si>
-    <t>| 234 | ê          | 234 |</t>
-  </si>
-  <si>
-    <t>| 235 | ë          | 235 |</t>
-  </si>
-  <si>
-    <t>| 236 | ì          | 236 |</t>
-  </si>
-  <si>
-    <t>| 237 | í          | 237 |</t>
-  </si>
-  <si>
-    <t>| 238 | î          | 238 |</t>
-  </si>
-  <si>
-    <t>| 239 | ï          | 239 |</t>
-  </si>
-  <si>
-    <t>| 240 | ð          | 240 |</t>
-  </si>
-  <si>
-    <t>| 241 | ñ          | 241 |</t>
-  </si>
-  <si>
-    <t>| 242 | ò          | 242 |</t>
-  </si>
-  <si>
-    <t>| 243 | ó          | 243 |</t>
-  </si>
-  <si>
-    <t>| 244 | ô          | 244 |</t>
-  </si>
-  <si>
-    <t>| 245 | õ          | 245 |</t>
-  </si>
-  <si>
-    <t>| 246 | ö          | 246 |</t>
-  </si>
-  <si>
-    <t>| 247 | ÷          | 247 |</t>
-  </si>
-  <si>
-    <t>| 248 | ø          | 248 |</t>
-  </si>
-  <si>
-    <t>| 249 | ù          | 249 |</t>
-  </si>
-  <si>
-    <t>| 250 | ú          | 250 |</t>
-  </si>
-  <si>
-    <t>| 251 | û          | 251 |</t>
-  </si>
-  <si>
-    <t>| 252 | ü          | 252 |</t>
-  </si>
-  <si>
-    <t>| 253 | ý          | 253 |</t>
-  </si>
-  <si>
-    <t>| 254 | þ          | 254 |</t>
-  </si>
-  <si>
-    <t>| 255 | ÿ          | 255 |</t>
+    <t xml:space="preserve"> Índice  Caractere  Código ASCII </t>
+  </si>
+  <si>
+    <t>---------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0    NUL         0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1    SOH         1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2    STX         2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3    ETX         3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4    EOT         4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5    ENQ         5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6    ACK         6   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7    BEL         7   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8    BS          8   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9    TAB         9   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10   LF          10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11   VT          11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12   FF          12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13   CR          13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14   SO          14  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15   SI          15  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16   DLE         16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17   DC1         17  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18   DC2         18  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19   DC3         19  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20   DC4         20  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21   NAK         21  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22   SYN         22  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23   ETB         23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24   CAN         24  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25   EM          25  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26   SUB         26  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27   ESC         27  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28   FS          28  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29   GS          29  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30   RS          30  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31   US          31  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32   Space       32  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33   !           33  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34   "           34  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35   #           35  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36   $           36  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37   %           37  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38   &amp;           38  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39   '           39  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40   (           40  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41   )           41  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42   *           42  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43   +           43  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44   ,           44  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45   -           45  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46   .           46  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47   /           47  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48   0           48  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49   1           49  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50   2           50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51   3           51  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52   4           52  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53   5           53  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54   6           54  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55   7           55  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56   8           56  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57   9           57  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58   :           58  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59   ;           59  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60   &lt;           60  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61   =           61  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62   &gt;           62  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63   ?           63  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64   @           64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65   A           65  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66   B           66  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67   C           67  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68   D           68  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69   E           69  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70   F           70  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71   G           71  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72   H           72  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73   I           73  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74   J           74  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75   K           75  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76   L           76  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77   M           77  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78   N           78  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79   O           79  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80   P           80  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81   Q           81  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82   R           82  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83   S           83  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84   T           84  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85   U           85  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86   V           86  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87   W           87  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88   X           88  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89   Y           89  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90   Z           90  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91   [           91  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92   `\`         92  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93   ]           93  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94   ^           94  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95   _           95  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96   `           96  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97   a           97  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98   b           98  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99   c           99  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100  d           100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101  e           101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102  f           102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103  g           103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104  h           104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105  i           105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106  j           106 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107  k           107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108  l           108 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109  m           109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110  n           110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 111  o           111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 112  p           112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 113  q           113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 114  r           114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 115  s           115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116  t           116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117  u           117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118  v           118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119  w           119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 120  x           120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 121  y           121 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 122  z           122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123  {           123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 124  \          124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 125  }           125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 126  ~           126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127  DEL         127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128  €           128 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129  undef       129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 130  ‚           130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 131  ƒ           131 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 132  „           132 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 133  …           133 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 134  †           134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 135  ‡           135 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 136  ˆ           136 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 137  ‰           137 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 138  Š           138 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 139  ‹           139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 140  Œ           140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 141  undef       141 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 142  Ž           142 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143  undef       143 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 144  undef       144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 145  ‘           145 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 146  ’           146 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 147  “           147 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 148  ”           148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 149  •           149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150  –           150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 151  —           151 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 152  ˜           152 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 153  ™           153 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 154  š           154 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 155  ›           155 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 156  œ           156 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 157  undef       157 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 158  ž           158 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 159  Ÿ           159 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 160  NBSP        160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 161  ¡           161 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 162  ¢           162 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 163  £           163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 164  ¤           164 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165  ¥           165 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 166  ¦           166 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 167  §           167 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 168  ¨           168 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 169  ©           169 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 170  ª           170 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 171  «           171 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 172  ¬           172 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 173  SHY         173 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 174  ®           174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 175  ¯           175 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 176  °           176 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 177  ±           177 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 178  ²           178 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 179  ³           179 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180  ´           180 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 181  µ           181 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182  ¶           182 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 183  ·           183 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 184  ¸           184 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 185  ¹           185 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 186  º           186 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 187  »           187 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 188  ¼           188 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 189  ½           189 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 190  ¾           190 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 191  ¿           191 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192  À           192 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 193  Á           193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 194  Â           194 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 195  Ã           195 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 196  Ä           196 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 197  Å           197 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 198  Æ           198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 199  Ç           199 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200  È           200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 201  É           201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 202  Ê           202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 203  Ë           203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 204  Ì           204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 205  Í           205 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 206  Î           206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 207  Ï           207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 208  Ð           208 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 209  Ñ           209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 210  Ò           210 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 211  Ó           211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 212  Ô           212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 213  Õ           213 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 214  Ö           214 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 215  ×           215 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 216  Ø           216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 217  Ù           217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218  Ú           218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 219  Û           219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220  Ü           220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 221  Ý           221 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 222  Þ           222 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 223  ß           223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 224  à           224 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 225  á           225 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 226  â           226 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 227  ã           227 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 228  ä           228 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 229  å           229 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230  æ           230 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231  ç           231 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232  è           232 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 233  é           233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 234  ê           234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 235  ë           235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 236  ì           236 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 237  í           237 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238  î           238 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 239  ï           239 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240  ð           240 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241  ñ           241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 242  ò           242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 243  ó           243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 244  ô           244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 245  õ           245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246  ö           246 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 247  ÷           247 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 248  ø           248 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 249  ù           249 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250  ú           250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 251  û           251 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 252  ü           252 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253  ý           253 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 254  þ           254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 255  ÿ           255 </t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEC790C-A4CF-42B4-9361-1627E955A7D3}">
   <dimension ref="J6:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
